--- a/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-24.xlsx
+++ b/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-24.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.473</v>
+        <v>1473</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.504</v>
+        <v>5504</v>
       </c>
       <c r="C3" t="n">
         <v>62</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="C4" t="n">
         <v>236</v>
@@ -489,7 +489,7 @@
         <v>113</v>
       </c>
       <c r="H4" t="n">
-        <v>1.67</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.539</v>
+        <v>2539</v>
       </c>
       <c r="C6" t="n">
         <v>54</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.187</v>
+        <v>10187</v>
       </c>
       <c r="C7" t="n">
         <v>286</v>
@@ -573,7 +573,7 @@
         <v>187</v>
       </c>
       <c r="H7" t="n">
-        <v>2.005</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="8">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203.211</v>
+        <v>203211</v>
       </c>
       <c r="C8" t="n">
-        <v>2.35</v>
+        <v>2350</v>
       </c>
       <c r="D8" t="n">
-        <v>1.916</v>
+        <v>1916</v>
       </c>
       <c r="E8" t="n">
         <v>141</v>
@@ -598,10 +598,10 @@
         <v>293</v>
       </c>
       <c r="G8" t="n">
-        <v>4.065</v>
+        <v>4065</v>
       </c>
       <c r="H8" t="n">
-        <v>22.732</v>
+        <v>22732</v>
       </c>
     </row>
     <row r="9">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.61</v>
+        <v>4610</v>
       </c>
       <c r="C9" t="n">
         <v>249</v>
@@ -629,7 +629,7 @@
         <v>59</v>
       </c>
       <c r="H9" t="n">
-        <v>1.782</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="10">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.657</v>
+        <v>4657</v>
       </c>
       <c r="C10" t="n">
         <v>153</v>
@@ -657,7 +657,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>1.262</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.219</v>
+        <v>2219</v>
       </c>
       <c r="C11" t="n">
         <v>24</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.464</v>
+        <v>5464</v>
       </c>
       <c r="C12" t="n">
         <v>136</v>
@@ -713,7 +713,7 @@
         <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>1.788</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.037</v>
+        <v>3037</v>
       </c>
       <c r="C13" t="n">
         <v>10</v>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.483</v>
+        <v>1483</v>
       </c>
       <c r="C15" t="n">
         <v>17</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.363</v>
+        <v>1363</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>254.416</v>
+        <v>254416</v>
       </c>
       <c r="C18" t="n">
-        <v>3.649</v>
+        <v>3649</v>
       </c>
       <c r="D18" t="n">
-        <v>3.02</v>
+        <v>3020</v>
       </c>
       <c r="E18" t="n">
         <v>264</v>
@@ -878,10 +878,10 @@
         <v>365</v>
       </c>
       <c r="G18" t="n">
-        <v>4.731</v>
+        <v>4731</v>
       </c>
       <c r="H18" t="n">
-        <v>34.592</v>
+        <v>34592</v>
       </c>
     </row>
   </sheetData>
